--- a/biology/Biologie cellulaire et moléculaire/Anhydrase_carbonique/Anhydrase_carbonique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Anhydrase_carbonique/Anhydrase_carbonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anhydrase carbonique est une enzyme présente à la surface plasmique intracellulaire (liée à l'échangeur anionique AE1 Cl/HCO3) des globules rouges (ou hématies ou encore érythrocytes) qui transforme le CO2 en H2CO3 et inversement. La plupart des anhydrases carboniques contiennent un atome de zinc. C'est une des enzymes les plus rapides connues[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anhydrase carbonique est une enzyme présente à la surface plasmique intracellulaire (liée à l'échangeur anionique AE1 Cl/HCO3) des globules rouges (ou hématies ou encore érythrocytes) qui transforme le CO2 en H2CO3 et inversement. La plupart des anhydrases carboniques contiennent un atome de zinc. C'est une des enzymes les plus rapides connues.
 Équation : H2O + CO2  
         ⇌
     {\displaystyle \rightleftharpoons }
@@ -520,7 +532,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs de l'anhydrase carbonique sont utilisés dans le traitement du glaucome ou dans l'insuffisance cardiaque.
 </t>
